--- a/library/PHPExcel-1.8/templates/linea.xlsx
+++ b/library/PHPExcel-1.8/templates/linea.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\livintugeda\library\PHPExcel-1.8\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9390"/>
   </bookViews>
@@ -14,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>San Andres</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Nacional</t>
   </si>
@@ -29,6 +31,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>26-35</t>
+  </si>
+  <si>
+    <t>36-45</t>
+  </si>
+  <si>
+    <t>46-55</t>
+  </si>
+  <si>
+    <t>Providencia y Santa Catalina</t>
   </si>
 </sst>
 </file>
@@ -52,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,7 +90,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,22 +139,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -394,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,144 +463,400 @@
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>2010</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2011</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2012</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2013</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2014</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>2010</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2012</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2014</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-18</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="12">
+        <v>55</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-18</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>-18</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="12">
+        <v>55</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
